--- a/src/io/ESM.xlsx
+++ b/src/io/ESM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micha\eebio-tools\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C75B09-3B60-43F0-A7E0-9910D2F519FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A3DB5A-7AF1-4217-B40F-8D790BB63128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="4188" windowWidth="23040" windowHeight="13560" activeTab="4" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="13560" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Plate</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>Plate brand</t>
   </si>
 </sst>
 </file>
@@ -452,19 +455,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2569E313-B3CC-438F-A253-EA0F3E8D819B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +487,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F2" s="1"/>
     </row>
   </sheetData>
@@ -582,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AD15BF-AC00-4821-ADC5-28168A3A0A78}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
